--- a/coles_data_with_barcodes_cleaned.xlsx
+++ b/coles_data_with_barcodes_cleaned.xlsx
@@ -4809,7 +4809,7 @@
       </c>
       <c r="F146" t="inlineStr">
         <is>
-          <t>The Australian barcode for Nescafé Strong Cappuccino Coffee Sachets 10 Pack is 8801055062287. ([mydeal.com.au](https://www.mydeal.com.au/nescafe-coffee-strong-cappuccino-sachets-10-pack-12439211?utm_source=openai))</t>
+          <t>8801055062287</t>
         </is>
       </c>
     </row>
@@ -5469,7 +5469,7 @@
       </c>
       <c r="F168" t="inlineStr">
         <is>
-          <t>19310645235902</t>
+          <t>Not Found</t>
         </is>
       </c>
     </row>
@@ -7389,7 +7389,7 @@
       </c>
       <c r="F232" t="inlineStr">
         <is>
-          <t>The barcode for Fairy Platinum Plus Dishwashing Tablets 56 Pack in Australia is 4987176123725. ([mydeal.com.au](https://www.mydeal.com.au/224-fairy-platinum-plus-dishwasher-capsules-lemon-4-x-56-pack-10230109?utm_source=openai))</t>
+          <t>4987176123725</t>
         </is>
       </c>
     </row>
@@ -7449,7 +7449,7 @@
       </c>
       <c r="F234" t="inlineStr">
         <is>
-          <t>The barcode for Haldiram's Bhel Puri 200g is 8904063200341. ([barcode-list.com](https://barcode-list.com/barcode/EN/barcode-8904063200341/Search.htm?utm_source=openai))</t>
+          <t>8904063200341</t>
         </is>
       </c>
     </row>
@@ -7599,7 +7599,7 @@
       </c>
       <c r="F239" t="inlineStr">
         <is>
-          <t>The Australian barcode for Morning Fresh Dishwashing Liquid Summer Berries 900ml is 9300615115436. ([mydeal.com.au](https://www.mydeal.com.au/morning-fresh-900ml-dishwashing-liquid-ultra-concentrate-summer-berries-8x-pack-15193892?utm_source=openai))</t>
+          <t>9300615115436</t>
         </is>
       </c>
     </row>
@@ -7749,7 +7749,7 @@
       </c>
       <c r="F244" t="inlineStr">
         <is>
-          <t>The Australian barcode for the Oral-B Vitality Precision Clean Electric Toothbrush 1 pack is 4987176144270. ([catandclaudias.com.au](https://catandclaudias.com.au/oralb-vitality-precision-clean-electric-toothbrush-4987176144270?utm_source=openai))</t>
+          <t>4987176144270</t>
         </is>
       </c>
     </row>
@@ -8169,7 +8169,7 @@
       </c>
       <c r="F258" t="inlineStr">
         <is>
-          <t>The barcode for the Smash Blue Stainless Steel Wide Mouth Food Jar 500ml is 9325448197572. ([mydeal.com.au](https://www.mydeal.com.au/smash-blue-stainless-steel-wide-mouth-food-jar-500ml-assorted-9767175?utm_source=openai)) However, I couldn't find the barcode for the 650ml version.</t>
+          <t>9325448197572</t>
         </is>
       </c>
     </row>
@@ -8409,7 +8409,7 @@
       </c>
       <c r="F266" t="inlineStr">
         <is>
-          <t>The Australian barcode for the Oral-B Vitality Frozen electric toothbrush 1 pack is 4210201156727. ([henryschein.com.au](https://henryschein.com.au/preventive/toothbrushes/power-brushes/kids-vitality-frozen-power-brush-age-3-plus?utm_source=openai)) For the Oral-B Vitality Star Wars electric toothbrush 1 pack, the barcode is 4210201156673. ([mydeal.com.au](https://www.mydeal.com.au/oral-b-vitality-power-toothbrush-kids-star-wars-spiderman-14575112?utm_source=openai))</t>
+          <t>4210201156727</t>
         </is>
       </c>
     </row>
@@ -8559,7 +8559,7 @@
       </c>
       <c r="F271" t="inlineStr">
         <is>
-          <t>The barcode for Hardys Brave New World Pinot Noir 750ml is 9311043767555. ([middaysomewhere.com.au](https://www.middaysomewhere.com.au/prices/143087/hardys-brave-new-world-pinot-noir?utm_source=openai))</t>
+          <t>9311043767555</t>
         </is>
       </c>
     </row>
@@ -9189,7 +9189,7 @@
       </c>
       <c r="F292" t="inlineStr">
         <is>
-          <t>93543811</t>
+          <t>Not Found</t>
         </is>
       </c>
     </row>
@@ -9219,7 +9219,7 @@
       </c>
       <c r="F293" t="inlineStr">
         <is>
-          <t>93555517</t>
+          <t>Not Found</t>
         </is>
       </c>
     </row>
@@ -9729,7 +9729,7 @@
       </c>
       <c r="F310" t="inlineStr">
         <is>
-          <t>The Australian barcode for Biozet Attack PLUS Softener Liquid 2L is 4710363961127. ([dicksmith.com.au](https://www.dicksmith.com.au/da/buy/deal-first-biozet-attack-laundry-powder-with-softener-2kg-8606167367892/?utm_source=openai))</t>
+          <t>4710363961127</t>
         </is>
       </c>
     </row>
@@ -9789,7 +9789,7 @@
       </c>
       <c r="F312" t="inlineStr">
         <is>
-          <t>93808989</t>
+          <t>Not Found</t>
         </is>
       </c>
     </row>
@@ -9909,7 +9909,7 @@
       </c>
       <c r="F316" t="inlineStr">
         <is>
-          <t>93600101</t>
+          <t>Not Found</t>
         </is>
       </c>
     </row>
@@ -9999,7 +9999,7 @@
       </c>
       <c r="F319" t="inlineStr">
         <is>
-          <t>The Australian barcode for 'Nice &amp; Natural Roasted Nut Bars with Milk Choc Multipack Snacks 6 Pack 192g' is 9400563448645. ([mybrandz.com.au](https://mybrandz.com.au/brands/nice-natural/?utm_source=openai))</t>
+          <t>9400563448645</t>
         </is>
       </c>
     </row>
@@ -11079,7 +11079,7 @@
       </c>
       <c r="F355" t="inlineStr">
         <is>
-          <t>93894326</t>
+          <t>Not Found</t>
         </is>
       </c>
     </row>
@@ -11169,7 +11169,7 @@
       </c>
       <c r="F358" t="inlineStr">
         <is>
-          <t>19310645244867</t>
+          <t>Not Found</t>
         </is>
       </c>
     </row>
@@ -11259,7 +11259,7 @@
       </c>
       <c r="F361" t="inlineStr">
         <is>
-          <t>93550710</t>
+          <t>Not Found</t>
         </is>
       </c>
     </row>
@@ -11859,7 +11859,7 @@
       </c>
       <c r="F381" t="inlineStr">
         <is>
-          <t>The Australian barcode for the 'Smash Blue Stainless Steel Meal Box 600ml 1 each' is 9325448177543. ([mydeal.com.au](https://www.mydeal.com.au/smash-blue-stainless-steel-meal-box-assorted-8681010?utm_source=openai))</t>
+          <t>9325448177543</t>
         </is>
       </c>
     </row>
@@ -12099,7 +12099,7 @@
       </c>
       <c r="F389" t="inlineStr">
         <is>
-          <t>93447744</t>
+          <t>Not Found</t>
         </is>
       </c>
     </row>
@@ -12129,7 +12129,7 @@
       </c>
       <c r="F390" t="inlineStr">
         <is>
-          <t>The Australian barcode for L'Oréal Paris Lumi Glotion Light Tinted Moisturiser 40ml (shade 902 Light Glow) is 3600524150563. ([kogan.com](https://www.kogan.com/au/buy/makeup-warehouse-loreal-paris-lumi-glotion-40ml-902-light-glow-7773260185679/?utm_source=openai))</t>
+          <t>3600524150563</t>
         </is>
       </c>
     </row>
@@ -12999,7 +12999,7 @@
       </c>
       <c r="F419" t="inlineStr">
         <is>
-          <t>The Australian barcode for Blackmores Probiotics+ Daily Health 30 Capsules is 93550642. ([vitalpharmacysupplies.com.au](https://vitalpharmacysupplies.com.au/products/blackmores-probiotics-30-capsules?utm_source=openai))</t>
+          <t>Not Found</t>
         </is>
       </c>
     </row>
@@ -13029,7 +13029,7 @@
       </c>
       <c r="F420" t="inlineStr">
         <is>
-          <t>93550659</t>
+          <t>Not Found</t>
         </is>
       </c>
     </row>
@@ -14019,7 +14019,7 @@
       </c>
       <c r="F453" t="inlineStr">
         <is>
-          <t>93894944</t>
+          <t>Not Found</t>
         </is>
       </c>
     </row>
@@ -14439,7 +14439,7 @@
       </c>
       <c r="F467" t="inlineStr">
         <is>
-          <t>30158672</t>
+          <t>Not Found</t>
         </is>
       </c>
     </row>
@@ -14469,7 +14469,7 @@
       </c>
       <c r="F468" t="inlineStr">
         <is>
-          <t>93808804</t>
+          <t>Not Found</t>
         </is>
       </c>
     </row>
@@ -14529,7 +14529,7 @@
       </c>
       <c r="F470" t="inlineStr">
         <is>
-          <t>The Australian barcode for L'Oréal Paris Elvive Extraordinary Oil Shampoo 340ml is 3600523972272. ([chemistwarehouse.com.au](https://www.chemistwarehouse.com.au/buy/149726/l-oreal-elvive-extraordinary-oils-shampoo-340ml?utm_source=openai))</t>
+          <t>3600523972272</t>
         </is>
       </c>
     </row>
@@ -14889,7 +14889,7 @@
       </c>
       <c r="F482" t="inlineStr">
         <is>
-          <t>The barcode for Downy Unstopables Fresh In-Wash Scent Booster 422g is 0037000746423. ([ebay.com.au](https://www.ebay.com.au/itm/184980969169?srsltid=AfmBOoq7cP02XyqIwh3Dq33j97fBLG5SOJfOIxCniJf2dmDJZCwfaHT3&amp;utm_source=openai))</t>
+          <t>0037000746423</t>
         </is>
       </c>
     </row>
@@ -14979,7 +14979,7 @@
       </c>
       <c r="F485" t="inlineStr">
         <is>
-          <t>The Australian barcode for the Bonds Men's Hipster Briefs 5 Pack in size Medium is 9337367630955. ([ebay.com.au](https://www.ebay.com.au/p/1871662834?utm_source=openai))</t>
+          <t>9337367630955</t>
         </is>
       </c>
     </row>
@@ -15699,7 +15699,7 @@
       </c>
       <c r="F509" t="inlineStr">
         <is>
-          <t>The barcode for the Bonds Men's 5 Pack Hipster Cotton Underwear in size Large is 9352762354404. ([ozdingo.com.au](https://ozdingo.com.au/products/bonds-mens-5-pairs-hipster-cotton-underwear-mens-briefs-pairs-black-s-m-l-xl-xxl?utm_source=openai))</t>
+          <t>9352762354404</t>
         </is>
       </c>
     </row>
@@ -15909,7 +15909,7 @@
       </c>
       <c r="F516" t="inlineStr">
         <is>
-          <t>The Australian barcode for L'Oréal Paris Volume Million Lashes Panorama Mascara 9.9ml Black is 30149649. ([makeupwarehouse.com.au](https://www.makeupwarehouse.com.au/products/loreal-paris-panorama-volume-million-lashes-mascara-9-9ml-black?utm_source=openai))</t>
+          <t>Not Found</t>
         </is>
       </c>
     </row>
@@ -16179,7 +16179,7 @@
       </c>
       <c r="F525" t="inlineStr">
         <is>
-          <t>30189010</t>
+          <t>Not Found</t>
         </is>
       </c>
     </row>
@@ -16269,7 +16269,7 @@
       </c>
       <c r="F528" t="inlineStr">
         <is>
-          <t>The Australian barcode for the 'Smash Blue Stainless Steel Food Flask 500ml' is 9325448210745. ([mydeal.com.au](https://www.mydeal.com.au/smash-blue-food-flask-500ml-assorted-11967265?utm_source=openai))</t>
+          <t>9325448210745</t>
         </is>
       </c>
     </row>
@@ -16359,7 +16359,7 @@
       </c>
       <c r="F531" t="inlineStr">
         <is>
-          <t>The Australian barcode for Downy Unstopables Lush In-Wash Scent Booster 422g is 00037000763383. ([emega.com.au](https://emega.com.au/shop/downy-unstopables-lush-in-wash-scent-booster-422g/?utm_source=openai))</t>
+          <t>Not Found</t>
         </is>
       </c>
     </row>
@@ -16419,7 +16419,7 @@
       </c>
       <c r="F533" t="inlineStr">
         <is>
-          <t>The Australian barcode for Blackmores Multivitamin for Men Sustained Release 60 Tablets is 0000093567060. ([ebay.com.au](https://www.ebay.com.au/p/6061815412?utm_source=openai))</t>
+          <t>0000093567060</t>
         </is>
       </c>
     </row>
@@ -16479,7 +16479,7 @@
       </c>
       <c r="F535" t="inlineStr">
         <is>
-          <t>93555951</t>
+          <t>Not Found</t>
         </is>
       </c>
     </row>
@@ -16569,7 +16569,7 @@
       </c>
       <c r="F538" t="inlineStr">
         <is>
-          <t>The Australian barcode (GTIN) for Maybelline Lash Sensational Firework Mascara is 9344329261461. ([mydeal.com.au](https://www.mydeal.com.au/maybelline-lash-sensational-fireworks-mascara-very-black-13172578?utm_source=openai))</t>
+          <t>9344329261461</t>
         </is>
       </c>
     </row>
@@ -16689,7 +16689,7 @@
       </c>
       <c r="F542" t="inlineStr">
         <is>
-          <t>The Australian barcode for the Colgate 360° Optic White Sonic Power Toothbrush Medium 1 Pack is 9300632076215. ([mydeal.com.au](https://www.mydeal.com.au/colgate-360-optic-white-sonic-power-toothbrush-medium-1-each-14666042?utm_source=openai))</t>
+          <t>9300632076215</t>
         </is>
       </c>
     </row>
@@ -16749,7 +16749,7 @@
       </c>
       <c r="F544" t="inlineStr">
         <is>
-          <t>93807906</t>
+          <t>Not Found</t>
         </is>
       </c>
     </row>
@@ -16989,7 +16989,7 @@
       </c>
       <c r="F552" t="inlineStr">
         <is>
-          <t>The Australian barcode for 'OGX Thick &amp; Full + Volumising Biotin &amp; Collagen Shampoo for Fine Hair 385ml' is 022796916709. ([kogan.com](https://www.kogan.com/au/buy/ogx-thick-full-biotin-collagen-shampoo-385ml-00022796916709/?utm_source=openai))</t>
+          <t>022796916709</t>
         </is>
       </c>
     </row>
@@ -17169,7 +17169,7 @@
       </c>
       <c r="F558" t="inlineStr">
         <is>
-          <t>The Australian barcode (GTIN) for L'Oréal Paris Telescopic Lift Mascara 8ml is 9344329243771. ([mydeal.com.au](https://www.mydeal.com.au/l-oreal-paris-telescopic-lift-mascara-black-10435329?utm_source=openai))</t>
+          <t>9344329243771</t>
         </is>
       </c>
     </row>
@@ -17229,7 +17229,7 @@
       </c>
       <c r="F560" t="inlineStr">
         <is>
-          <t>The Australian barcode for the Smash Blue Ceramic Lined Barista Cup 236mL is 9325448203419. ([mydeal.com.au](https://www.mydeal.com.au/smash-ceramic-barista-cup-236ml-assorted-11333458?utm_source=openai))</t>
+          <t>9325448203419</t>
         </is>
       </c>
     </row>
@@ -17379,7 +17379,7 @@
       </c>
       <c r="F565" t="inlineStr">
         <is>
-          <t>The Australian barcode for L'Oréal Paris Telescopic Lift Mascara Waterproof Black 9.9ml is 071249672945. ([mydeal.com.au](https://www.mydeal.com.au/l-oreal-paris-telescopic-lift-waterproof-mascara-black-14790214?utm_source=openai))</t>
+          <t>071249672945</t>
         </is>
       </c>
     </row>
@@ -17439,7 +17439,7 @@
       </c>
       <c r="F567" t="inlineStr">
         <is>
-          <t>The barcode for the Bonds Men's Action Brief XL 5 Pack is 9357690318313. ([onbuy.com](https://www.onbuy.com/gb/p/bonds-5-pack-action-briefs-mens-support-comfy-cotton-undies-underwear-m8os5i-blackblueredgreynavy-black-xl~p113750995/?utm_source=openai))</t>
+          <t>9357690318313</t>
         </is>
       </c>
     </row>
@@ -17469,7 +17469,7 @@
       </c>
       <c r="F568" t="inlineStr">
         <is>
-          <t>The barcode for Head &amp; Shoulders Apple Fresh Anti-Dandruff Shampoo 750ml is 4902430411738. ([superbuys.com.au](https://www.superbuys.com.au/head-shoulders-apple-fresh-anti-dandruff-shampoo-7?utm_source=openai)) For the 500ml variant, the barcode is 5410076230280. ([upcitemdb.com](https://www.upcitemdb.com/upc/5410076230280?utm_source=openai)) However, the specific barcode for the 850ml size is not available in the provided sources.</t>
+          <t>4902430411738</t>
         </is>
       </c>
     </row>
@@ -17499,7 +17499,7 @@
       </c>
       <c r="F569" t="inlineStr">
         <is>
-          <t>The barcode for Head &amp; Shoulders Cool Menthol Anti-Dandruff Shampoo 850ml in Australia is 4902430307901. ([gourmetfoods.vn](https://gourmetfoods.vn/head-shoulders-cool-menthol-850ml?utm_source=openai))</t>
+          <t>4902430307901</t>
         </is>
       </c>
     </row>
@@ -17949,7 +17949,7 @@
       </c>
       <c r="F584" t="inlineStr">
         <is>
-          <t>The barcode for Blackmores Deep Sleep 30-pack is 93569835. ([dicksmith.com.au](https://www.dicksmith.com.au/da/buy/deal-first-blackmores-deep-sleep-capsules-30-pack-8606197186772/?utm_source=openai))</t>
+          <t>8606197186772</t>
         </is>
       </c>
     </row>
@@ -18069,7 +18069,7 @@
       </c>
       <c r="F588" t="inlineStr">
         <is>
-          <t>The Australian barcode for the Smash Blue Stainless Steel Barista Buddy 475ml is 9325448175914. ([mydeal.com.au](https://www.mydeal.com.au/smash-blue-stainless-steel-barista-buddy-475ml-assorted-8738847?utm_source=openai))</t>
+          <t>9325448175914</t>
         </is>
       </c>
     </row>
@@ -18099,7 +18099,7 @@
       </c>
       <c r="F589" t="inlineStr">
         <is>
-          <t>The Australian barcode for Blackmores Multivitamins for 50+ 60 Tablets is 9300807349939. ([mydeal.com.au](https://www.mydeal.com.au/blackmores-50-multivitamin-with-sustained-release-60-tablets-14882978?utm_source=openai))</t>
+          <t>9300807349939</t>
         </is>
       </c>
     </row>
@@ -18189,7 +18189,7 @@
       </c>
       <c r="F592" t="inlineStr">
         <is>
-          <t>The barcode for Cuddly Concentrate Aroma Collections White Lily &amp; French Vanilla Fabric Conditioner 900mL is 9300632067374. ([ebay.com.au](https://www.ebay.com.au/itm/146209325278?utm_source=openai))</t>
+          <t>9300632067374</t>
         </is>
       </c>
     </row>
@@ -18609,7 +18609,7 @@
       </c>
       <c r="F606" t="inlineStr">
         <is>
-          <t>The Australian barcode (GTIN-13) for L'Oréal Paris Lumi Le Liquid Blush 630 True Rose 10ml is 0000030188532. ([lorealparis.com.au](https://www.lorealparis.com.au/lumi/le-liquid-blush-630?utm_source=openai))</t>
+          <t>0000030188532</t>
         </is>
       </c>
     </row>
@@ -18729,7 +18729,7 @@
       </c>
       <c r="F610" t="inlineStr">
         <is>
-          <t>The barcode for the Maui Moisture Coconut Oil Curl Quench Smoothie Curl Enhancer 340g is 022796180049. ([catandclaudias.com.au](https://catandclaudias.com.au/maui-moisture-curl-quench-coconut-oil-curl-enhancing-smoothie-hair-treatment-340g-022796180049?utm_source=openai))</t>
+          <t>022796180049</t>
         </is>
       </c>
     </row>
@@ -19209,7 +19209,7 @@
       </c>
       <c r="F626" t="inlineStr">
         <is>
-          <t>The Australian barcode for the Bonds Men's Action Brief M 5 Pack is 9339631880660. ([ebay.com.au](https://www.ebay.com.au/p/1356856605?utm_source=openai))</t>
+          <t>9339631880660</t>
         </is>
       </c>
     </row>
@@ -19659,7 +19659,7 @@
       </c>
       <c r="F641" t="inlineStr">
         <is>
-          <t>The barcode for Head &amp; Shoulders Itchy Scalp Care Anti-Dandruff Shampoo 850ml in Australia is 4987176229731. ([mattblatt.com.au](https://www.mattblatt.com.au/mb/buy/deal-first-head-shoulders-itchy-scalp-care-anti-dandruff-shampoo-850ml-8614514360532/?utm_source=openai))</t>
+          <t>4987176229731</t>
         </is>
       </c>
     </row>
@@ -20049,7 +20049,7 @@
       </c>
       <c r="F654" t="inlineStr">
         <is>
-          <t>The Australian barcode for L'Oréal Excellence 9.1 Light Ash Blonde 1 pack is 9312825500834. ([pharmacy4less.com.au](https://pharmacy4less.com.au/loreal-paris-excellence-9-1-light-ash-blonde/?srsltid=AfmBOor6FNpzi0I-pBSMf0imWkYMaiJzMENs519cG3eVWwUahod0UIV3&amp;utm_source=openai))</t>
+          <t>9312825500834</t>
         </is>
       </c>
     </row>
@@ -20229,7 +20229,7 @@
       </c>
       <c r="F660" t="inlineStr">
         <is>
-          <t>The barcode for the Bonds Women's 150 Denier Skinny Leggings in size SM-MD is 1328347. ([bigw.com.au](https://www.bigw.com.au/product/bonds-women-s-150-denier-skinny-leggings-black/p/1328347-black?utm_source=openai))</t>
+          <t>Not Found</t>
         </is>
       </c>
     </row>
@@ -20379,7 +20379,7 @@
       </c>
       <c r="F665" t="inlineStr">
         <is>
-          <t>The barcode for the Bonds Men's Guyfront Trunk in size Large (1 pack) is 9312993846017. ([onbuy.com](https://www.onbuy.com/gb/p/bonds-3-pack-mens-guyfront-trunks-briefs-boxer-short-comfy-blue-undies-underwear-my963a-24k-s~p71795426/?utm_source=openai))</t>
+          <t>9312993846017</t>
         </is>
       </c>
     </row>
@@ -20499,7 +20499,7 @@
       </c>
       <c r="F669" t="inlineStr">
         <is>
-          <t>The Australian barcode for Maybelline Super Stay Vinyl Ink Lipstick in the shade 'Lippy' (4.2ml) is 000030145559. ([mydeal.com.au](https://www.mydeal.com.au/maybelline-superstay-vinyl-ink-longwear-liquid-lipstick-lippy-13509510?utm_source=openai))</t>
+          <t>000030145559</t>
         </is>
       </c>
     </row>
@@ -20559,7 +20559,7 @@
       </c>
       <c r="F671" t="inlineStr">
         <is>
-          <t>The Australian barcode for L'Oréal Paris Preference 9.1 Oslo (Viking Light Ash Blonde) hair colour is 9312825629153. ([mydeal.com.au](https://www.mydeal.com.au/l-oreal-preference-oslo-9-1-viking-light-ash-blonde-13100791?utm_source=openai))</t>
+          <t>9312825629153</t>
         </is>
       </c>
     </row>
@@ -20619,7 +20619,7 @@
       </c>
       <c r="F673" t="inlineStr">
         <is>
-          <t>30147317</t>
+          <t>Not Found</t>
         </is>
       </c>
     </row>
@@ -20649,7 +20649,7 @@
       </c>
       <c r="F674" t="inlineStr">
         <is>
-          <t>30163799</t>
+          <t>Not Found</t>
         </is>
       </c>
     </row>
@@ -20949,7 +20949,7 @@
       </c>
       <c r="F684" t="inlineStr">
         <is>
-          <t>The barcode for 'Head &amp; Shoulders 2 in 1 Anti-Dandruff Shampoo Cool Menthol 750ml' in Australia is 4987176038517. ([mydeal.com.au](https://www.mydeal.com.au/head-shoulders-cool-menthol-2in1-shampoo-and-conditioner-350ml-8668981?utm_source=openai))</t>
+          <t>4987176038517</t>
         </is>
       </c>
     </row>
@@ -20979,7 +20979,7 @@
       </c>
       <c r="F685" t="inlineStr">
         <is>
-          <t>93564427</t>
+          <t>Not Found</t>
         </is>
       </c>
     </row>
@@ -21099,7 +21099,7 @@
       </c>
       <c r="F689" t="inlineStr">
         <is>
-          <t>390256</t>
+          <t>Not Found</t>
         </is>
       </c>
     </row>
@@ -21129,7 +21129,7 @@
       </c>
       <c r="F690" t="inlineStr">
         <is>
-          <t>The barcode for Palmolive Men's Active Body Wash with Sea Minerals, 500ml, is 8850006493519. ([mydeal.com.au](https://www.mydeal.com.au/palmolive-men-deep-clean-body-wash-with-spearmint-oil-500ml-14577840?utm_source=openai))</t>
+          <t>8850006493519</t>
         </is>
       </c>
     </row>
@@ -21339,7 +21339,7 @@
       </c>
       <c r="F697" t="inlineStr">
         <is>
-          <t>The Australian barcode for Maybelline Lash Sensational Blackest Black Mascara 9ml is 3600531143459. ([upcitemdb.com](https://www.upcitemdb.com/upc/3600531143459?utm_source=openai))</t>
+          <t>3600531143459</t>
         </is>
       </c>
     </row>
@@ -21459,7 +21459,7 @@
       </c>
       <c r="F701" t="inlineStr">
         <is>
-          <t>The Australian barcode for Maybelline Fit Me Matte + Poreless Foundation in shade 110 Porcelain (30ml) is 041554433418. ([mydeal.com.au](https://www.mydeal.com.au/maybelline-fit-me-matte-poreless-mattifying-liquid-foundation-porcelain-110-13542437?utm_source=openai))</t>
+          <t>041554433418</t>
         </is>
       </c>
     </row>
@@ -21669,7 +21669,7 @@
       </c>
       <c r="F708" t="inlineStr">
         <is>
-          <t>The Australian barcode for L'Oréal Excellence Crème 8 Blonde Hair Colour is 3600523750146. ([mydeal.com.au](https://www.mydeal.com.au/l-oreal-excellence-creme-8-blonde-hair-colour-9994503?utm_source=openai))</t>
+          <t>3600523750146</t>
         </is>
       </c>
     </row>
@@ -21789,7 +21789,7 @@
       </c>
       <c r="F712" t="inlineStr">
         <is>
-          <t>The Australian barcode for L'Oréal Excellence 5.6 Rich Auburn 1 pack is 9312825500933. ([superbuys.com.au](https://www.superbuys.com.au/loreal-excellence-creme-5.6-rich-aurburn?utm_source=openai))</t>
+          <t>9312825500933</t>
         </is>
       </c>
     </row>
@@ -21969,7 +21969,7 @@
       </c>
       <c r="F718" t="inlineStr">
         <is>
-          <t>The Australian barcode for Maybelline Super Stay Vinyl Ink Lipstick in shade 35 Cheeky (4ml) is 000030153219. ([mydeal.com.au](https://www.mydeal.com.au/maybelline-superstay-vinyl-ink-longwear-lipstick-35-cheeky-12586705?utm_source=openai))</t>
+          <t>000030153219</t>
         </is>
       </c>
     </row>
@@ -22179,7 +22179,7 @@
       </c>
       <c r="F725" t="inlineStr">
         <is>
-          <t>30145535</t>
+          <t>Not Found</t>
         </is>
       </c>
     </row>
@@ -22209,7 +22209,7 @@
       </c>
       <c r="F726" t="inlineStr">
         <is>
-          <t>93222808</t>
+          <t>Not Found</t>
         </is>
       </c>
     </row>
@@ -22359,7 +22359,7 @@
       </c>
       <c r="F731" t="inlineStr">
         <is>
-          <t>The Australian barcode for 'Banana Boat Moisturising Sunscreen Lotion SPF50+ 400g' is 9330344010740. ([davidjonespharmacy.com.au](https://www.davidjonespharmacy.com.au/banana-boat-moisturising-pump-spf50-400g?utm_source=openai))</t>
+          <t>9330344010740</t>
         </is>
       </c>
     </row>
@@ -22449,7 +22449,7 @@
       </c>
       <c r="F734" t="inlineStr">
         <is>
-          <t>The Australian barcode for 'Cuddly Japanese Cherry Blossom Fabric Conditioner 900ml' is 9300632086078. ([kogan.com](https://www.kogan.com/au/buy/deal-first-cuddly-ultra-fabric-softener-japanese-cherry-blossom-900ml-8608037765332/?utm_source=openai))</t>
+          <t>9300632086078</t>
         </is>
       </c>
     </row>
@@ -22569,7 +22569,7 @@
       </c>
       <c r="F738" t="inlineStr">
         <is>
-          <t>The Australian barcode for Maybelline Superfluff Brow Mousse in Soft Brown 5ml is 0041554572339. ([dicksmith.com.au](https://www.dicksmith.com.au/da/buy/your-discount-chemist-maybelline-superfluff-brow-mousse-635539-1/?utm_source=openai))</t>
+          <t>0041554572339</t>
         </is>
       </c>
     </row>
@@ -22599,7 +22599,7 @@
       </c>
       <c r="F739" t="inlineStr">
         <is>
-          <t>The Australian barcode for 'OGX Heavenly Hydration + Shine Cherry Blossom Shampoo for Thin and Fine Hair 385ml' is 022796900807. ([ahpcpharmacyoutlet.com.au](https://www.ahpcpharmacyoutlet.com.au/products/ogx-heavenly-hydration-shine-cherry-blossom-shampoo-for-thin-and-fine-hair-385ml?utm_source=openai))</t>
+          <t>022796900807</t>
         </is>
       </c>
     </row>
@@ -22629,7 +22629,7 @@
       </c>
       <c r="F740" t="inlineStr">
         <is>
-          <t>22796900814</t>
+          <t>Not Found</t>
         </is>
       </c>
     </row>
@@ -22719,7 +22719,7 @@
       </c>
       <c r="F743" t="inlineStr">
         <is>
-          <t>The Australian barcode for Maybelline Fit Me Matte + Poreless Foundation 220 Natural Beige 30ml is 9344329095035. ([makeupwarehouse.com.au](https://www.makeupwarehouse.com.au/products/maybelline-fit-me-matte-poreless-foundation-30ml-220-natural-beige?utm_source=openai))</t>
+          <t>9344329095035</t>
         </is>
       </c>
     </row>
@@ -22839,11 +22839,7 @@
       </c>
       <c r="F747" t="inlineStr">
         <is>
-          <t>The Australian barcode for Maybelline Tattoo Brow Easy Peel Off Tint 5g varies by shade:
-- **Light Brown**: 3600531417734
-- **Medium Brown**: 3600531417758
-- **Dark Brown**: 3600531417765
-Please note that the product weight is listed as 4.6g in some sources.</t>
+          <t>3600531417734</t>
         </is>
       </c>
     </row>
@@ -22993,7 +22989,7 @@
       </c>
       <c r="F752" t="inlineStr">
         <is>
-          <t>The barcode for 'Fudge Professional Clean Blonde Damage Rewind Violet Toning Conditioner 250ml' is 5060420335552. ([chemistwarehouse.com.au](https://www.chemistwarehouse.com.au/buy/107231/fudge-professional-clean-blonde-damage-rewind-purple-toning-conditioner-250ml?utm_source=openai))</t>
+          <t>5060420335552</t>
         </is>
       </c>
     </row>
@@ -23053,7 +23049,7 @@
       </c>
       <c r="F754" t="inlineStr">
         <is>
-          <t>The Australian barcode for the Colgate 360 Advanced Soft Toothbrush 4 Pack is 8850006943373. ([mydeal.com.au](https://www.mydeal.com.au/colgate-360-advanced-soft-bristle-toothbrush-4-pack-8739847?utm_source=openai))</t>
+          <t>8850006943373</t>
         </is>
       </c>
     </row>
@@ -23083,7 +23079,7 @@
       </c>
       <c r="F755" t="inlineStr">
         <is>
-          <t>The barcode for the Bonds Men's Guyfront Trunk in size medium, 1 pack, is 9312993846000. ([ebay.com.au](https://www.ebay.com.au/p/685079277?utm_source=openai))</t>
+          <t>9312993846000</t>
         </is>
       </c>
     </row>
@@ -23173,10 +23169,7 @@
       </c>
       <c r="F758" t="inlineStr">
         <is>
-          <t>The barcode for the Schick Xtreme 3 Sensitive Disposable Razors 14 Pack in Australia is not readily available. However, similar products have the following barcodes:
-- Schick Xtreme 3 Sensitive Disposable Razors 4 Pack: 6937266733516 ([mydeal.com.au](https://www.mydeal.com.au/schick-xtreme-3-sensitive-disposable-razor-4-pack-14519821?utm_source=openai))
-- Schick Xtreme 3 Sensitive Disposable Razors 16 Pack: 9312931637653 ([ebay.com.au](https://www.ebay.com.au/p/21014957708?iid=372222428250&amp;utm_source=openai))
-Given this pattern, the 14 Pack may have a barcode similar to these, but the exact number is not specified in the available sources.</t>
+          <t>6937266733516</t>
         </is>
       </c>
     </row>
@@ -23476,7 +23469,7 @@
       </c>
       <c r="F768" t="inlineStr">
         <is>
-          <t>The barcode for Maybelline Sunkisser Blush in the shade '03 Sol Search' is 3600531668419. ([mydeal.com.au](https://www.mydeal.com.au/maybelline-sunkisser-blush-03-sol-search-12862597?utm_source=openai))</t>
+          <t>3600531668419</t>
         </is>
       </c>
     </row>
@@ -23656,7 +23649,7 @@
       </c>
       <c r="F774" t="inlineStr">
         <is>
-          <t>The Australian barcode for Head &amp; Shoulders Instant Oil Control 2-in-1 Anti-Dandruff Shampoo &amp; Conditioner 750mL is 4987176038548. ([kgelectronic.com.au](https://www.kgelectronic.com.au/p/6PK-Head-Shoulders-660ml-Anti-Dandruff-Shampoo-Oil/80780174_6PK?utm_source=openai))</t>
+          <t>4987176038548</t>
         </is>
       </c>
     </row>
@@ -23956,7 +23949,7 @@
       </c>
       <c r="F784" t="inlineStr">
         <is>
-          <t>The Australian barcode (GTIN) for Maybelline Fit Me 115 Ivory Foundation 30ml is 3600530746514. ([qogita.com](https://www.qogita.com/products/4BnTXcm7hQ/maybelline-fit-me-liquid-115-ivory-foundation/?utm_source=openai))</t>
+          <t>3600530746514</t>
         </is>
       </c>
     </row>
@@ -24376,7 +24369,7 @@
       </c>
       <c r="F798" t="inlineStr">
         <is>
-          <t>The barcode for the Bonds Men's Guyfront Trunk in size XL (1 pack) is 9312993846017. ([onbuy.com](https://www.onbuy.com/gb/p/bonds-3-pack-mens-guyfront-trunks-briefs-boxer-short-comfy-blue-undies-underwear-my963a-24k-s~p71795426/?utm_source=openai))</t>
+          <t>9312993846017</t>
         </is>
       </c>
     </row>
@@ -24616,7 +24609,7 @@
       </c>
       <c r="F806" t="inlineStr">
         <is>
-          <t>The Australian barcode for the Bonds Bloody Comfy Period Full Brief Heavy in size 10 is 9312997345769. ([mightyape.com.au](https://www.mightyape.com.au/ma/buy/aie-bonds-womens-bloody-comfy-period-full-brief-moderate-underwear-black-wtkl-eg184-1/?utm_source=openai))</t>
+          <t>9312997345769</t>
         </is>
       </c>
     </row>
@@ -24736,7 +24729,7 @@
       </c>
       <c r="F810" t="inlineStr">
         <is>
-          <t>The barcode for Radiant Plus Softener Liquid Laundry Detergent 1.8L Spring Bloom is 9300615004570. ([kgelectronic.com.au](https://www.kgelectronic.com.au/p/4PK-Radiant-Plus-Softener-Liquid-Laundry-Detergent/100110457_4PK?utm_source=openai))</t>
+          <t>9300615004570</t>
         </is>
       </c>
     </row>
@@ -24766,7 +24759,7 @@
       </c>
       <c r="F811" t="inlineStr">
         <is>
-          <t>The Australian barcode for the 'Smash Double Wall One Touch Bottle, Blue Steel, 690ml Capacity' is 9325448202481. ([ebay.co.uk](https://www.ebay.co.uk/p/11066225052?utm_source=openai))</t>
+          <t>9325448202481</t>
         </is>
       </c>
     </row>
@@ -24886,7 +24879,7 @@
       </c>
       <c r="F815" t="inlineStr">
         <is>
-          <t>The Australian barcode for Cadbury Dairy Milk Peppermint Chocolate Bites 142g is 9300617294573. ([treatsfromoz.com](https://www.treatsfromoz.com/products/cadbury-peppermint-bites-124g?utm_source=openai))</t>
+          <t>9300617294573</t>
         </is>
       </c>
     </row>
@@ -24976,7 +24969,7 @@
       </c>
       <c r="F818" t="inlineStr">
         <is>
-          <t>The Australian barcode for Cadbury Curly Wurly Squirlies Chocolate Bites 130g is 9300617069867. ([officeworks.com.au](https://www.officeworks.com.au/shop/officeworks/p/cadbury-curly-wurly-squirlies-110g-mn4224723?utm_source=openai))</t>
+          <t>9300617069867</t>
         </is>
       </c>
     </row>
@@ -25066,7 +25059,7 @@
       </c>
       <c r="F821" t="inlineStr">
         <is>
-          <t>The Australian barcode for 'OGX Ever Straightening + Smoothing and Shine Brazilian Keratin Therapy Shampoo for Dull Hair 385ml' is 022796916013. ([dicksmith.com.au](https://www.dicksmith.com.au/da/buy/ogx-brazilian-keratin-therapy-shampoo-385ml-00022796916013/?utm_source=openai))</t>
+          <t>022796916013</t>
         </is>
       </c>
     </row>
@@ -25126,7 +25119,7 @@
       </c>
       <c r="F823" t="inlineStr">
         <is>
-          <t>The Australian barcode for the Botanica Origins French Clary Sage Candle 250g is 9300701284977.</t>
+          <t>9300701284977</t>
         </is>
       </c>
     </row>
@@ -25216,7 +25209,7 @@
       </c>
       <c r="F826" t="inlineStr">
         <is>
-          <t>The Australian barcode for 'Garnier Good 7.0 Almond Crème Dark Blonde 1 Pack' is 3600542574464. ([ebay.com.au](https://www.ebay.com.au/itm/395921844161?utm_source=openai))</t>
+          <t>3600542574464</t>
         </is>
       </c>
     </row>
@@ -25276,7 +25269,7 @@
       </c>
       <c r="F828" t="inlineStr">
         <is>
-          <t>The Australian barcode for Maybelline Fit Me Foundation 225 Medium Buff 30ml is 041554238723. ([mydeal.com.au](https://www.mydeal.com.au/maybelline-fit-me-foundation-dewy-smooth-225-medium-buff-10454974?utm_source=openai))</t>
+          <t>041554238723</t>
         </is>
       </c>
     </row>
@@ -25876,7 +25869,7 @@
       </c>
       <c r="F848" t="inlineStr">
         <is>
-          <t>The Australian barcode for the Colgate 360° Whole Mouth Clean Soft Toothbrush 1 Pack is 8714789183824. ([catandclaudias.com.au](https://catandclaudias.com.au/colgate-360-whole-mouth-clean-toothbrush-soft-1-ea-8714789183824?utm_source=openai))</t>
+          <t>8714789183824</t>
         </is>
       </c>
     </row>
@@ -26266,7 +26259,7 @@
       </c>
       <c r="F861" t="inlineStr">
         <is>
-          <t>The Australian barcode for 'OGX Nourishing + Hydrating Coconut Milk Shampoo for Dry Hair 384ml' is 0022796910059. ([dicksmith.com.au](https://www.dicksmith.com.au/da/buy/ogx-nourishing-coco-milk-shampoo-385ml-00022796910059/?utm_source=openai))</t>
+          <t>0022796910059</t>
         </is>
       </c>
     </row>
@@ -26356,7 +26349,7 @@
       </c>
       <c r="F864" t="inlineStr">
         <is>
-          <t>The Australian barcode for Blackmores Natural Vitamin E 1000IU 30 Capsules is 0000093482752. ([ebay.com.au](https://www.ebay.com.au/p/1009876533?utm_source=openai))</t>
+          <t>0000093482752</t>
         </is>
       </c>
     </row>
@@ -26386,7 +26379,7 @@
       </c>
       <c r="F865" t="inlineStr">
         <is>
-          <t>93558594</t>
+          <t>Not Found</t>
         </is>
       </c>
     </row>
@@ -26566,7 +26559,7 @@
       </c>
       <c r="F871" t="inlineStr">
         <is>
-          <t>10052800681948</t>
+          <t>Not Found</t>
         </is>
       </c>
     </row>
@@ -26746,7 +26739,7 @@
       </c>
       <c r="F877" t="inlineStr">
         <is>
-          <t>The Australian barcode for 'OGX Thick &amp; Full + Volumising Biotin &amp; Collagen Conditioner for Fine Hair 385ml' is 0022796916716. ([pharmacy4less.com.au](https://pharmacy4less.com.au/ogx-biotin-collagen-conditioner-385ml/?srsltid=AfmBOoqpsPR3Sb3yJwvsunCWjyEoMUfErVCT1owyoR8x5JF2q6wEPHdS&amp;utm_source=openai))</t>
+          <t>0022796916716</t>
         </is>
       </c>
     </row>
@@ -26866,7 +26859,7 @@
       </c>
       <c r="F881" t="inlineStr">
         <is>
-          <t>93556828</t>
+          <t>Not Found</t>
         </is>
       </c>
     </row>
@@ -26896,7 +26889,7 @@
       </c>
       <c r="F882" t="inlineStr">
         <is>
-          <t>The barcode for OGX Quenching + Coconut Curls Shampoo for Curly Hair 385mL in Australia is 022796900906. ([vitalpharmacysupplies.com.au](https://vitalpharmacysupplies.com.au/products/ogx-quenching-coconut-curls-shampoo-for-curly-hair-385ml?utm_source=openai))</t>
+          <t>022796900906</t>
         </is>
       </c>
     </row>
@@ -27436,7 +27429,7 @@
       </c>
       <c r="F900" t="inlineStr">
         <is>
-          <t>The barcode for the Bonds Women's Hipster Bikini Brief 2 Pack in size 12 is 9354009043881. ([ebay.com.au](https://www.ebay.com.au/p/9063560487?utm_source=openai))</t>
+          <t>9354009043881</t>
         </is>
       </c>
     </row>
@@ -27616,7 +27609,7 @@
       </c>
       <c r="F906" t="inlineStr">
         <is>
-          <t>The barcode for Fudge Professional Clean Blonde Violet Toning Conditioner 250ml is 5060420335804. ([cfdirect.com.au](https://cfdirect.com.au/products/fudgeprofessionalcleanblondeviolet-toningconditioner250ml?utm_source=openai))</t>
+          <t>5060420335804</t>
         </is>
       </c>
     </row>
@@ -27676,7 +27669,7 @@
       </c>
       <c r="F908" t="inlineStr">
         <is>
-          <t>The barcode for the Bonds Bloody Comfy Period Bikini Brief Moderate in size 8 is 9359481541801. ([mydeal.com.au](https://www.mydeal.com.au/5-x-bonds-womens-bloody-comfy-period-bikini-moderate-days-underwear-multi-11630942?utm_source=openai))</t>
+          <t>9359481541801</t>
         </is>
       </c>
     </row>
@@ -27886,7 +27879,7 @@
       </c>
       <c r="F915" t="inlineStr">
         <is>
-          <t>The Australian barcode for 'Thayers Rose Petal Alcohol-Free Toner with Witch Hazel and Aloe Vera 355ml' is 041507070035. ([chemistwarehouse.com.au](https://www.chemistwarehouse.com.au/buy/111827/thayers-rose-petal-alcohol-free-toner-with-witch-hazel-aloe-vera-355ml?utm_source=openai))</t>
+          <t>041507070035</t>
         </is>
       </c>
     </row>
@@ -28006,7 +27999,7 @@
       </c>
       <c r="F919" t="inlineStr">
         <is>
-          <t>The Australian barcode for 'L'Oréal Paris Infallible Brow Xpert Ebony 3g' is 9344329158563. ([mydeal.com.au](https://www.mydeal.com.au/l-oreal-brow-artist-xpert-3g-ebony-9992713?utm_source=openai))</t>
+          <t>9344329158563</t>
         </is>
       </c>
     </row>
@@ -28066,7 +28059,7 @@
       </c>
       <c r="F921" t="inlineStr">
         <is>
-          <t>The Australian barcode for 'Cadbury Dairy Milk Hazelnut Chocolate Bites 130g' is 9300617301325. ([jbmetro.com.au](https://www.jbmetro.com.au/130g-cadbury-dairy-milk-hazelnut-bites-chbi.html?utm_source=openai))</t>
+          <t>9300617301325</t>
         </is>
       </c>
     </row>
@@ -28396,7 +28389,7 @@
       </c>
       <c r="F932" t="inlineStr">
         <is>
-          <t>The barcode for the Smash Blue Stainless Steel Barista Buddy 350ml is 9325448172616. ([theschoollocker.com.au](https://theschoollocker.com.au/smash-ss-barista-buddy-350ml?utm_source=openai))</t>
+          <t>9325448172616</t>
         </is>
       </c>
     </row>
@@ -28486,7 +28479,7 @@
       </c>
       <c r="F935" t="inlineStr">
         <is>
-          <t>The Australian barcode for Head &amp; Shoulders BARE Pure Clean Anti-Dandruff Shampoo 400ml is 4987176279439. ([thewarehouse.co.nz](https://www.thewarehouse.co.nz/p/head-shoulders-bare-pure-clean-shampoo-400ml/R2995205.html?utm_source=openai))</t>
+          <t>4987176279439</t>
         </is>
       </c>
     </row>
@@ -28516,7 +28509,7 @@
       </c>
       <c r="F936" t="inlineStr">
         <is>
-          <t>The barcode for OGX Refreshing Scalp + Rosemary Mint Conditioner 385ml in Australia is 3574661805931. ([mydeal.com.au](https://www.mydeal.com.au/ogx-rosemary-mint-shampoo-385ml-14580171?utm_source=openai))</t>
+          <t>3574661805931</t>
         </is>
       </c>
     </row>
@@ -28786,7 +28779,7 @@
       </c>
       <c r="F945" t="inlineStr">
         <is>
-          <t>The Australian barcode for Maybelline Lifter Plump Lip Gloss 5.4ml in the shade Blush Blaze is 000030158719. ([mydeal.com.au](https://www.mydeal.com.au/maybelline-lip-lifter-gloss-plump-blush-blaze-12301952?utm_source=openai))</t>
+          <t>000030158719</t>
         </is>
       </c>
     </row>
@@ -29056,7 +29049,7 @@
       </c>
       <c r="F954" t="inlineStr">
         <is>
-          <t>The Australian barcode for 'Downy Sunrise Fresh Fabric Enhancer Liquid 900ml' is 4902430178198. ([sadacotas.com](https://sadacotas.com/en/product/downy-sunrise-fresh-fabric-softener-900ml-bottle/?utm_source=openai))</t>
+          <t>4902430178198</t>
         </is>
       </c>
     </row>
@@ -29326,7 +29319,7 @@
       </c>
       <c r="F963" t="inlineStr">
         <is>
-          <t>The Australian barcode for the Beach Road Naturals Sandalwood, Geranium &amp; Bergamot Castile Body Bar 150g is 9348918003715. ([ebay.com.au](https://www.ebay.com.au/itm/275097780349?srsltid=AfmBOoovZtJpbO1sModbwRiLtVVoL0mRgyYbE9a3Id3ZCjU9_3tXgh_r&amp;utm_source=openai))</t>
+          <t>9348918003715</t>
         </is>
       </c>
     </row>
@@ -29446,7 +29439,7 @@
       </c>
       <c r="F967" t="inlineStr">
         <is>
-          <t>The barcode for the Colgate 360 Optic White Soft Toothbrush 2 Pack in Australia is 9300632087105. ([vitalpharmacysupplies.com.au](https://vitalpharmacysupplies.com.au/products/colgate-360-advanced-optic-white-soft-toothbrush-value-2-pack?utm_source=openai)) However, I couldn't find a specific barcode for the 3 Pack variant.</t>
+          <t>9300632087105</t>
         </is>
       </c>
     </row>
@@ -29746,7 +29739,7 @@
       </c>
       <c r="F977" t="inlineStr">
         <is>
-          <t>The Australian barcode for the Maybelline Tattoo Liner Ink Pen 6.3g is 9344329249179. ([mydeal.com.au](https://www.mydeal.com.au/maybelline-tattoo-liner-ink-pen-9796808?utm_source=openai))</t>
+          <t>9344329249179</t>
         </is>
       </c>
     </row>
@@ -29956,7 +29949,7 @@
       </c>
       <c r="F984" t="inlineStr">
         <is>
-          <t>The Australian barcode for Head &amp; Shoulders Dry Scalp Care Conditioner 660ml is 4987176161215. ([mattblatt.com.au](https://www.mattblatt.com.au/mb/buy/deal-first-head-shoulders-dry-scalp-care-conditioner-660ml-8614534021332/?utm_source=openai))</t>
+          <t>4987176161215</t>
         </is>
       </c>
     </row>
@@ -29986,7 +29979,7 @@
       </c>
       <c r="F985" t="inlineStr">
         <is>
-          <t>The Australian barcode (GTIN) for 'Maybelline Eyestudio ColorTattoo Inspired 12g' is 3600531672577. ([mydeal.com.au](https://www.mydeal.com.au/maybelline-colour-tattoo-eye-stix-i-am-inspired-11964628?utm_source=openai))</t>
+          <t>3600531672577</t>
         </is>
       </c>
     </row>
@@ -30046,7 +30039,7 @@
       </c>
       <c r="F987" t="inlineStr">
         <is>
-          <t>The Australian barcode for 'OGX Nourishing + Hydrating Coconut Milk Conditioner for Dry Hair 385ml' is 022796910066. ([catandclaudias.com.au](https://catandclaudias.com.au/ogx-nourishing-coconut-milk-conditioner-385ml-22796910066?utm_source=openai))</t>
+          <t>022796910066</t>
         </is>
       </c>
     </row>
@@ -30346,7 +30339,7 @@
       </c>
       <c r="F997" t="inlineStr">
         <is>
-          <t>The Australian barcode for 'Caltrate Bone and Muscle Health Vitamin D 1000IU 60 pack' is 9310488001637. ([mydeal.com.au](https://www.mydeal.com.au/caltrate-bone-and-muscle-60-tablets-14156649?utm_source=openai))</t>
+          <t>9310488001637</t>
         </is>
       </c>
     </row>
@@ -30466,7 +30459,7 @@
       </c>
       <c r="F1001" t="inlineStr">
         <is>
-          <t>The Australian barcode for Blackmores Bio Magnesium Muscle Health Tablets 50 pack is 0000093367066. ([pharmacy4less.com.au](https://pharmacy4less.com.au/blackmores-bio-magnesium-50-tablets/?utm_source=openai))</t>
+          <t>0000093367066</t>
         </is>
       </c>
     </row>
@@ -30526,7 +30519,7 @@
       </c>
       <c r="F1003" t="inlineStr">
         <is>
-          <t>The barcode for OGX Renewing + Repairing &amp; Shine Argan Oil of Morocco Conditioner for Dry &amp; Damaged Hair 385ml is 022796916129. ([mydeal.com.au](https://www.mydeal.com.au/ogx-conditioner-moroccan-argan-oil-385ml-10796144?utm_source=openai))</t>
+          <t>022796916129</t>
         </is>
       </c>
     </row>
@@ -30586,7 +30579,7 @@
       </c>
       <c r="F1005" t="inlineStr">
         <is>
-          <t>The Australian barcode for 'Cadbury Dairy Milk Marvellous Creations Bites 142g' is 9300617300977. ([inlanddistributors.com.au](https://www.inlanddistributors.com.au/shop?%24Sort=Age&amp;FilterType=Custom10&amp;FilterValue=MONDELEZ+AUSTRALIA+PTY+LTD&amp;utm_source=openai))</t>
+          <t>9300617300977</t>
         </is>
       </c>
     </row>
@@ -30706,7 +30699,7 @@
       </c>
       <c r="F1009" t="inlineStr">
         <is>
-          <t>The Australian barcode for Hershey's Cookies 'n' Creme Bar 40g is 9310645111056. ([americancandystore.com.au](https://www.americancandystore.com.au/product/hersheys-cookies-n-creme-43g/?utm_source=openai))</t>
+          <t>9310645111056</t>
         </is>
       </c>
     </row>
@@ -31366,7 +31359,7 @@
       </c>
       <c r="F1031" t="inlineStr">
         <is>
-          <t>The Australian barcode for NIVEA 3 in 1 Hand Cream Anti Age Q10 100ml is 42390077. ([mydeal.com.au](https://www.mydeal.com.au/nivea-3in1-anti-age-care-hand-cream-100ml-14776004?utm_source=openai))</t>
+          <t>Not Found</t>
         </is>
       </c>
     </row>
@@ -31456,7 +31449,7 @@
       </c>
       <c r="F1034" t="inlineStr">
         <is>
-          <t>The barcode for the Bonds Bloody Comfy Period Bikini Brief Moderate in size 10, 1 pack, is 9359481541801. ([mydeal.com.au](https://www.mydeal.com.au/5-x-bonds-womens-bloody-comfy-period-bikini-moderate-days-underwear-multi-11630942?utm_source=openai))</t>
+          <t>9359481541801</t>
         </is>
       </c>
     </row>
@@ -31486,7 +31479,7 @@
       </c>
       <c r="F1035" t="inlineStr">
         <is>
-          <t>The Australian barcode for Blackmores Nails, Hair &amp; Skin 60 Tablets is 93333535. ([catandclaudias.com.au](https://catandclaudias.com.au/blackmores-nails-hair-and-skin-60-tablets-93333535?utm_source=openai))</t>
+          <t>Not Found</t>
         </is>
       </c>
     </row>
@@ -31516,7 +31509,7 @@
       </c>
       <c r="F1036" t="inlineStr">
         <is>
-          <t>The barcode for SunGrow Jasmine Rice AAA 5 kg is not available in the provided sources.</t>
+          <t>Not Found</t>
         </is>
       </c>
     </row>
@@ -31546,7 +31539,7 @@
       </c>
       <c r="F1037" t="inlineStr">
         <is>
-          <t>The barcode for Palmolive Luminous Oils Shower Gel Invigorating 750ml in Australia is 8850006943595. ([ebay.com.au](https://www.ebay.com.au/p/26063451170?utm_source=openai))</t>
+          <t>8850006943595</t>
         </is>
       </c>
     </row>
@@ -31876,7 +31869,7 @@
       </c>
       <c r="F1048" t="inlineStr">
         <is>
-          <t>The Australian barcode for 'Maybelline Brow Ultra Slim 4.5 Ash Brown' is 9344329252131. ([mydeal.com.au](https://www.mydeal.com.au/maybelline-brow-ultra-slim-4-5-ash-brown-12626026?utm_source=openai))</t>
+          <t>9344329252131</t>
         </is>
       </c>
     </row>
@@ -31936,7 +31929,7 @@
       </c>
       <c r="F1050" t="inlineStr">
         <is>
-          <t>The barcode for Maybelline Colossal Washable Mascara in Glam Black (9.2ml) is 041554050899. ([mydeal.com.au](https://www.mydeal.com.au/maybelline-volum-express-the-colossal-washable-mascara-glam-black-11173184?utm_source=openai)) For the Classic Black shade (9.2ml), the barcode is 041554050905. ([cfdirect.com.au](https://cfdirect.com.au/products/maybelline-colossal-vol-exp-masc-cl-blk?utm_source=openai)) Please note that the 'Very Black' shade may have a different barcode, which is not specified in the available sources.</t>
+          <t>041554050899</t>
         </is>
       </c>
     </row>
@@ -32176,7 +32169,7 @@
       </c>
       <c r="F1058" t="inlineStr">
         <is>
-          <t>The Australian barcode for the Decor Vent &amp; Seal Glass Oblong 1L container is 941271124258. ([storagebox.co.nz](https://www.storagebox.co.nz/kitchen/food-storage-containers/decor-vent-seal-glass-oblong-1l?utm_source=openai))</t>
+          <t>941271124258</t>
         </is>
       </c>
     </row>
@@ -32386,7 +32379,7 @@
       </c>
       <c r="F1065" t="inlineStr">
         <is>
-          <t>The barcode for OzKleen Shower Power Citrus 500mL is 9319824100133. ([houseofnappies.com.au](https://www.houseofnappies.com.au/ozkleen-shower-power-citrus-500ml?utm_source=openai))</t>
+          <t>9319824100133</t>
         </is>
       </c>
     </row>
@@ -33286,7 +33279,7 @@
       </c>
       <c r="F1095" t="inlineStr">
         <is>
-          <t>93807357</t>
+          <t>Not Found</t>
         </is>
       </c>
     </row>
@@ -33346,7 +33339,7 @@
       </c>
       <c r="F1097" t="inlineStr">
         <is>
-          <t>The Australian barcode for the Smash Charm Blue Sipper Water Bottle - 750ml is 9325448228061. ([argos.co.uk](https://www.argos.co.uk/product/4666086?utm_source=openai))</t>
+          <t>9325448228061</t>
         </is>
       </c>
     </row>
@@ -33526,7 +33519,7 @@
       </c>
       <c r="F1103" t="inlineStr">
         <is>
-          <t>The barcode for 'Passage to India Extra Spicy Butter Chicken Simmer Sauce 375g' is 9325763000038. ([world.openfoodfacts.org](https://world.openfoodfacts.org/product/9325763000038/butter-chicken-simmer-sauce-passage-to-india?utm_source=openai))</t>
+          <t>9325763000038</t>
         </is>
       </c>
     </row>
@@ -33736,7 +33729,7 @@
       </c>
       <c r="F1110" t="inlineStr">
         <is>
-          <t>The Australian barcode for the Smash Stainless Steel Kids Sipper Water Bottle 500ml - Blue is 9325448184640. ([aussietoysonline.com.au](https://www.aussietoysonline.com.au/smash-stainless-steel-kids-sipper-water-bottle-500~12388759?region=us&amp;srsltid=AfmBOoqzJyp8ix72EonsKlAqa-kxtYPCCId0ZGriIAJm-rRHMaMeYAXc&amp;utm_source=openai))</t>
+          <t>9325448184640</t>
         </is>
       </c>
     </row>
@@ -33766,7 +33759,7 @@
       </c>
       <c r="F1111" t="inlineStr">
         <is>
-          <t>The Australian barcode for Downy Unstopables Beads Lush 162g is 0037000823025. ([upcitemdb.com](https://www.upcitemdb.com/upc/37000823025?utm_source=openai))</t>
+          <t>0037000823025</t>
         </is>
       </c>
     </row>
@@ -34006,7 +33999,7 @@
       </c>
       <c r="F1119" t="inlineStr">
         <is>
-          <t>The Australian barcode for the Smash Blue Stainless Steel Sipper Bottle 750mL is 9325448208445. ([officeworks.com.au](https://www.officeworks.com.au/shop/officeworks/p/smash-blue-stainless-steel-sipper-bottle-pink-green-750ml-sm4892?utm_source=openai))</t>
+          <t>9325448208445</t>
         </is>
       </c>
     </row>
@@ -34186,7 +34179,7 @@
       </c>
       <c r="F1125" t="inlineStr">
         <is>
-          <t>The Australian barcode for Nivea Daily Essentials Hydrating Face Moisturiser SPF30 50ml is 4005800096662. ([davidjonespharmacy.com.au](https://www.davidjonespharmacy.com.au/nivea-daily-essentials-hydrating-face-moisturiser?srsltid=AfmBOorTEjxgt1iXYqMQa4coJfjVsfOFqf5tkrzAT5KZn-REgKy2ZT84&amp;utm_source=openai))</t>
+          <t>4005800096662</t>
         </is>
       </c>
     </row>
@@ -34336,7 +34329,7 @@
       </c>
       <c r="F1130" t="inlineStr">
         <is>
-          <t>The Australian barcode for Palmolive Naturals Body Wash Coconut 500mL is 8850006937785. ([theonlinepharmacy.com.au](https://theonlinepharmacy.com.au/brands/palmolive-naturals-coconut-milk-500ml-shower-gel-500ml.html?utm_source=openai))</t>
+          <t>8850006937785</t>
         </is>
       </c>
     </row>
@@ -34486,7 +34479,7 @@
       </c>
       <c r="F1135" t="inlineStr">
         <is>
-          <t>93666398</t>
+          <t>Not Found</t>
         </is>
       </c>
     </row>
@@ -35116,7 +35109,7 @@
       </c>
       <c r="F1156" t="inlineStr">
         <is>
-          <t>The barcode for Pantene Pro-V Sheer Volume Shampoo 350ml in Australia is 4902430931168. ([davidjonespharmacy.com.au](https://www.davidjonespharmacy.com.au/pantene-pro-v-sheer-volume-shampoo-350ml?utm_source=openai))</t>
+          <t>4902430931168</t>
         </is>
       </c>
     </row>
@@ -35416,7 +35409,7 @@
       </c>
       <c r="F1166" t="inlineStr">
         <is>
-          <t>The barcode for the Bonds Women's Logo Low Cut Socks 3 Pack in size 8-11 is 9356044484599. ([kiwibargain.co.nz](https://kiwibargain.co.nz/products/womens-logo-cushioned-low-cut-socks-3-pack?utm_source=openai))</t>
+          <t>9356044484599</t>
         </is>
       </c>
     </row>
@@ -35566,7 +35559,7 @@
       </c>
       <c r="F1171" t="inlineStr">
         <is>
-          <t>93448826</t>
+          <t>Not Found</t>
         </is>
       </c>
     </row>
@@ -35716,7 +35709,7 @@
       </c>
       <c r="F1176" t="inlineStr">
         <is>
-          <t>The barcode for the Bonds Men's Logo Crew Sock 3 Pack in size 11+ is 0705353304477. ([ebay.com.au](https://www.ebay.com.au/p/16073674431?utm_source=openai))</t>
+          <t>0705353304477</t>
         </is>
       </c>
     </row>
@@ -35866,7 +35859,7 @@
       </c>
       <c r="F1181" t="inlineStr">
         <is>
-          <t>The barcode for Griffin's Squiggles Pineapple Chunks 195g is 9400556001918.</t>
+          <t>9400556001918</t>
         </is>
       </c>
     </row>
@@ -35926,7 +35919,7 @@
       </c>
       <c r="F1183" t="inlineStr">
         <is>
-          <t>The barcode for Darrell Lea Liquorice Twists Original 280g is 9310881910383. ([treatsfromoz.com](https://www.treatsfromoz.com/products/darrell-lea-liquorice-twists-280g?utm_source=openai))</t>
+          <t>9310881910383</t>
         </is>
       </c>
     </row>
@@ -36286,7 +36279,7 @@
       </c>
       <c r="F1195" t="inlineStr">
         <is>
-          <t>The Australian barcode for 'Passage Foods Passage to India Korma Curry Simmer Sauce Pouch 375g' is 9325763000038. ([woolworths.com.au](https://www.woolworths.com.au/Shop/ProductDetails/186115/passage-to-india-simmer-sauce-curry-korma?utm_source=openai))</t>
+          <t>9325763000038</t>
         </is>
       </c>
     </row>
@@ -36556,7 +36549,7 @@
       </c>
       <c r="F1204" t="inlineStr">
         <is>
-          <t>The Australian barcode for the Smash Hydro Chugger 1L Grey and Blue is 9325448182226. ([api.officeworks.com.au](https://api.officeworks.com.au/shop/officeworks/p/smash-hydro-chugger-drink-bottle-1l-grey-and-blue-sm24737?utm_source=openai))</t>
+          <t>9325448182226</t>
         </is>
       </c>
     </row>
@@ -36616,7 +36609,7 @@
       </c>
       <c r="F1206" t="inlineStr">
         <is>
-          <t>The Australian barcode for the Garnier Pure Charcoal Mask Black Algae 28g is 9344329188690. ([kgelectronic.com.au](https://www.kgelectronic.com.au/p/6PK-5pc-Garnier-28G-Skinactive-Pure-Charcoal-Tissu/188691_6PK?utm_source=openai))</t>
+          <t>9344329188690</t>
         </is>
       </c>
     </row>
@@ -36646,7 +36639,7 @@
       </c>
       <c r="F1207" t="inlineStr">
         <is>
-          <t>93807845</t>
+          <t>Not Found</t>
         </is>
       </c>
     </row>
@@ -36706,7 +36699,7 @@
       </c>
       <c r="F1209" t="inlineStr">
         <is>
-          <t>The Australian barcode for Beach Road Naturals Paw Paw Extract &amp; Mandarin Hand Wash 500ml is 9348918008192. ([ebay.com](https://www.ebay.com/itm/255978184166?utm_source=openai))</t>
+          <t>9348918008192</t>
         </is>
       </c>
     </row>
@@ -36736,7 +36729,7 @@
       </c>
       <c r="F1210" t="inlineStr">
         <is>
-          <t>The barcode for the People Haircare Volume Conditioner 350ml is not available in the provided information.</t>
+          <t>Not Found</t>
         </is>
       </c>
     </row>
@@ -36796,7 +36789,7 @@
       </c>
       <c r="F1212" t="inlineStr">
         <is>
-          <t>The barcode for the Bonds Men's Oxford Crew Socks 3 Pack in size 11+ is 495624002. ([harrisscarfe.com.au](https://www.harrisscarfe.com.au/men/mens-underwear-sleepwear/mens-socks/bonds-mens-oxford-crew-socks-3-pack/495624002?utm_source=openai))</t>
+          <t>Not Found</t>
         </is>
       </c>
     </row>
@@ -37066,7 +37059,7 @@
       </c>
       <c r="F1221" t="inlineStr">
         <is>
-          <t>The barcode for Schwarzkopf got2b Guardian Angel Heat Protection Spray 200ml in Australia is 5012583201885. ([mydeal.com.au](https://www.mydeal.com.au/schwarzkopf-got2b-guardian-angel-heat-spray-200ml-14578474?utm_source=openai))</t>
+          <t>5012583201885</t>
         </is>
       </c>
     </row>
@@ -37366,7 +37359,7 @@
       </c>
       <c r="F1231" t="inlineStr">
         <is>
-          <t>The Australian barcode for 'Passage Foods Passage to India Tikka Masala Simmer Sauce Pouch 375g' is 9325763000083. ([satisfinefoods.com.au](https://www.satisfinefoods.com.au/products/passage-foods-tikka-masala-375g-x-6?utm_source=openai))</t>
+          <t>9325763000083</t>
         </is>
       </c>
     </row>
@@ -37396,7 +37389,7 @@
       </c>
       <c r="F1232" t="inlineStr">
         <is>
-          <t>The Australian barcode for 'Passage Foods Passage to India Rogan Josh Simmer Sauce Pouch 375g' is 879924000027. ([nutritionvalue.org](https://www.nutritionvalue.org/Passage_of_india%2C_rogan_josh_simmer_sauce_by_PASSAGE_OF_INDIA_411217_nutritional_value.html?utm_source=openai))</t>
+          <t>879924000027</t>
         </is>
       </c>
     </row>
@@ -37936,7 +37929,7 @@
       </c>
       <c r="F1250" t="inlineStr">
         <is>
-          <t>The Australian barcode for the Cadbury Dairy Milk Marvellous Creations Rocky Road Chocolate Block 190g is 9300617301707. ([mydeal.com.au](https://www.mydeal.com.au/2-x-cadbury-dairy-milk-marvellous-creations-rocky-road-chocolate-block-190g-14765212?utm_source=openai))</t>
+          <t>9300617301707</t>
         </is>
       </c>
     </row>
@@ -38176,7 +38169,7 @@
       </c>
       <c r="F1258" t="inlineStr">
         <is>
-          <t>The barcode for Pure Beach Texture Spray 200ml is 9333680020343. ([beautyworks.com.au](https://beautyworks.com.au/pure-beach-texture-spray-200ml/?utm_source=openai))</t>
+          <t>9333680020343</t>
         </is>
       </c>
     </row>
@@ -38206,7 +38199,7 @@
       </c>
       <c r="F1259" t="inlineStr">
         <is>
-          <t>The barcode for Domestos Toilet Thick Bleach Ocean Fresh 500mL in Australia is 8934868135722. ([kgelectronic.com.au](https://www.kgelectronic.com.au/p/24PK-Domestos-Extra-Power-Thick-Bleach-500ml-Origi/67599801_24PK?utm_source=openai))</t>
+          <t>8934868135722</t>
         </is>
       </c>
     </row>
@@ -38416,7 +38409,7 @@
       </c>
       <c r="F1266" t="inlineStr">
         <is>
-          <t>The barcode for L'Oréal Paris Elvive Extraordinary Oil Coconut Shampoo 340ml in Australia is 8901526641871. ([thewarehouse.co.nz](https://www.thewarehouse.co.nz/p/loreal-paris-elvive-extraordinary-oil-coconut-shampoo-340ml/R2997229.html?utm_source=openai))</t>
+          <t>8901526641871</t>
         </is>
       </c>
     </row>
@@ -38476,7 +38469,7 @@
       </c>
       <c r="F1268" t="inlineStr">
         <is>
-          <t>The Australian barcode for Clairol Root Touch-Up Permanent Hair Colour 5 Medium Brown 1 Pack is 4056800252008. ([mydeal.com.au](https://www.mydeal.com.au/clairol-nice-n-easy-root-touch-up-permanent-hair-colour-medium-brown-11967250?utm_source=openai))</t>
+          <t>4056800252008</t>
         </is>
       </c>
     </row>
@@ -38746,7 +38739,7 @@
       </c>
       <c r="F1277" t="inlineStr">
         <is>
-          <t>The Australian barcode for the Botanica by Air Wick Island Rose &amp; African Geranium Room Spray 236mL is 930070111984. ([mydeal.com.au](https://www.mydeal.com.au/botanica-island-rose-african-geranium-reed-diffuser-80ml-12915526?utm_source=openai))</t>
+          <t>930070111984</t>
         </is>
       </c>
     </row>
@@ -38806,7 +38799,7 @@
       </c>
       <c r="F1279" t="inlineStr">
         <is>
-          <t>The barcode for Hi Lift Hydrate Nourish and Repair Conditioner 350ml is 9323199007560. ([bellezza.com.au](https://bellezza.com.au/hi-lift-hydrate-nourish-an-repair-conditioner-350ml/?utm_source=openai))</t>
+          <t>9323199007560</t>
         </is>
       </c>
     </row>
@@ -38896,7 +38889,7 @@
       </c>
       <c r="F1282" t="inlineStr">
         <is>
-          <t>The Australian barcode for the Bonds Men's Logo Quarter Crew Socks 3 Pack in size 11+ is 9356044271182. ([ebay.com.au](https://www.ebay.com.au/itm/276262238211?srsltid=AfmBOorryG9WDmto05-xP9sQuv94UQpmXJLCoIv7HCg8YPyJsbjQ4Ko7&amp;utm_source=openai))</t>
+          <t>9356044271182</t>
         </is>
       </c>
     </row>
@@ -38986,7 +38979,7 @@
       </c>
       <c r="F1285" t="inlineStr">
         <is>
-          <t>The barcode for People Haircare's Blonde Shampoo 350mL is not available in the provided information.</t>
+          <t>Not Found</t>
         </is>
       </c>
     </row>
@@ -39016,7 +39009,7 @@
       </c>
       <c r="F1286" t="inlineStr">
         <is>
-          <t>The barcode for Hi Lift True Blonde Zero Yellow Conditioner 350ml is 9323199007355. ([johnbrennanhair.com.au](https://www.johnbrennanhair.com.au/hairproduct/hi-lift-true-blonde-zero-yellow-conditioner-350ml/?utm_source=openai))</t>
+          <t>9323199007355</t>
         </is>
       </c>
     </row>
@@ -39046,7 +39039,7 @@
       </c>
       <c r="F1287" t="inlineStr">
         <is>
-          <t>The barcode for the 'people curl shampoo 350ml' is 5016155275854. ([incibeauty.com](https://incibeauty.com/en/produit/5016155275854?utm_source=openai))</t>
+          <t>5016155275854</t>
         </is>
       </c>
     </row>
@@ -39166,7 +39159,7 @@
       </c>
       <c r="F1291" t="inlineStr">
         <is>
-          <t>The Australian barcode for the Bonds Men's Logo No Show Socks 3 Pack is 0705353304477. ([ebay.com.au](https://www.ebay.com.au/p/16073674431?utm_source=openai))</t>
+          <t>0705353304477</t>
         </is>
       </c>
     </row>
@@ -39226,7 +39219,7 @@
       </c>
       <c r="F1293" t="inlineStr">
         <is>
-          <t>The barcode for the Bonds Men's Logo Low Cut 3 Pack socks in size 11-14 is 0705353304477. ([ebay.com.au](https://www.ebay.com.au/p/16073674431?utm_source=openai))</t>
+          <t>0705353304477</t>
         </is>
       </c>
     </row>
@@ -39316,7 +39309,7 @@
       </c>
       <c r="F1296" t="inlineStr">
         <is>
-          <t>The barcode for People Haircare's Volumising Foam 200ml is not available in the provided information. ([peoplehaircare.co](https://www.peoplehaircare.co/products/volumising-foam?utm_source=openai))</t>
+          <t>Not Found</t>
         </is>
       </c>
     </row>
@@ -39556,7 +39549,7 @@
       </c>
       <c r="F1304" t="inlineStr">
         <is>
-          <t>The barcode for Aunt Betty's Saucy Centres Chocolate Twin Pack 220g is 9417986939001. ([world.openfoodfacts.org](https://world.openfoodfacts.org/product/9417986939001/chocolate-steamed-puddings-aunt-betty-s?utm_source=openai))</t>
+          <t>9417986939001</t>
         </is>
       </c>
     </row>
@@ -39676,7 +39669,7 @@
       </c>
       <c r="F1308" t="inlineStr">
         <is>
-          <t>The Australian barcode for Reese's Caramel Big Cup 39g is 034000250165. ([usacandyfactory.com.au](https://usacandyfactory.com.au/reeses-caramel-big-cup-39g/?utm_source=openai))</t>
+          <t>034000250165</t>
         </is>
       </c>
     </row>
@@ -39826,7 +39819,7 @@
       </c>
       <c r="F1313" t="inlineStr">
         <is>
-          <t>The Australian barcode for the Bonds Kids Logo Quarter Crew Socks 3 Pack is 0726084066717. ([ebay.com.au](https://www.ebay.com.au/p/2344749067?utm_source=openai))</t>
+          <t>0726084066717</t>
         </is>
       </c>
     </row>
@@ -39886,7 +39879,7 @@
       </c>
       <c r="F1315" t="inlineStr">
         <is>
-          <t>The Australian barcode for 'Palmolive Luminous Oils Hand Wash Frangipani and Coconut 500ml' is 8850006481530. ([davidjonespharmacy.com.au](https://www.davidjonespharmacy.com.au/palmolive-luminous-oils-handwash-coconut-frangipan?utm_source=openai))</t>
+          <t>8850006481530</t>
         </is>
       </c>
     </row>
@@ -39946,7 +39939,7 @@
       </c>
       <c r="F1317" t="inlineStr">
         <is>
-          <t>The Australian barcode for Downy Unstopables Beads Fresh 162g is 0037000797210. ([ebay.com.au](https://www.ebay.com.au/itm/226459097130?utm_source=openai))</t>
+          <t>0037000797210</t>
         </is>
       </c>
     </row>
@@ -40246,7 +40239,7 @@
       </c>
       <c r="F1327" t="inlineStr">
         <is>
-          <t>The barcode for the Bonds Kids Logo Quarter Crew Socks - 3 Pack is 0705353675614. ([ebay.com.au](https://www.ebay.com.au/p/9067431320?utm_source=openai))</t>
+          <t>0705353675614</t>
         </is>
       </c>
     </row>
@@ -40306,7 +40299,7 @@
       </c>
       <c r="F1329" t="inlineStr">
         <is>
-          <t>The Australian barcode for Reese's Peanut Butter Cup White 2 Pack 39g is 034000433032. ([usacandyfactory.com.au](https://usacandyfactory.com.au/white-reeses-pnb-cup-2-peanut-butter-cups-in-each-pack-42g/?srsltid=AfmBOoo1NBOKut8qpNslgxy3CZ_aIH8GPStzbkntrCp5yMIPUoWlIG2D&amp;utm_source=openai))</t>
+          <t>034000433032</t>
         </is>
       </c>
     </row>
@@ -40636,7 +40629,7 @@
       </c>
       <c r="F1340" t="inlineStr">
         <is>
-          <t>The barcode for the Unlabelled Exfoliating Body Bar Orange Mandarin &amp; Collagen 180g is 9359374000149. ([ebay.com.au](https://www.ebay.com.au/itm/335563913194?utm_source=openai))</t>
+          <t>9359374000149</t>
         </is>
       </c>
     </row>
@@ -40696,7 +40689,7 @@
       </c>
       <c r="F1342" t="inlineStr">
         <is>
-          <t>The barcode for the Razzamatazz Sheer Knee-Hi 15 Denier Matte Beige Pantyhose (8 Pairs) is 9360159018051. ([mydeal.com.au](https://www.mydeal.com.au/razzamatazz-8-pairs-sheer-knee-hi-15-denier-matte-beige-pantyhose-natural-h80042-socks-9428353?utm_source=openai))</t>
+          <t>9360159018051</t>
         </is>
       </c>
     </row>
@@ -40936,7 +40929,7 @@
       </c>
       <c r="F1350" t="inlineStr">
         <is>
-          <t>The Australian barcode for the Beach Road Naturals Coconut &amp; Lime Conditioner Bar 70g is 9348918003692. ([beachroadnaturals.com](https://www.beachroadnaturals.com/pages/our-range-1?utm_source=openai))</t>
+          <t>9348918003692</t>
         </is>
       </c>
     </row>
@@ -40996,7 +40989,7 @@
       </c>
       <c r="F1352" t="inlineStr">
         <is>
-          <t>The Australian barcode for the Bonds Baby Bucket Hat One Size Assorted is 693928. ([woolworths.com.au](https://www.woolworths.com.au/shop/productdetails/693928/%7B%7Bmetacontroller.metadata.canonical%7D%7D?utm_source=openai))</t>
+          <t>Not Found</t>
         </is>
       </c>
     </row>
@@ -41056,7 +41049,7 @@
       </c>
       <c r="F1354" t="inlineStr">
         <is>
-          <t>The Australian barcode for L'Oréal Elvive Total Repair 5 Conditioner 340ml is 8901526599448. ([chemistwarehouse.com.au](https://www.chemistwarehouse.com.au/buy/149729/l-oreal-elvive-total-repair-5-conditioner-340ml?utm_source=openai))</t>
+          <t>8901526599448</t>
         </is>
       </c>
     </row>
@@ -41506,7 +41499,7 @@
       </c>
       <c r="F1369" t="inlineStr">
         <is>
-          <t>The barcode for 'Bonds Sheer Pantyhose Slim Black Small 1 each' is 9326489965205. ([ebay.com.au](https://www.ebay.com.au/p/1877985724?srsltid=AfmBOoo_nyecniDB4aQ8xokpwBy10mRn4Q76_WfaWxNd2xpTNSzHbDQk&amp;utm_source=openai))</t>
+          <t>9326489965205</t>
         </is>
       </c>
     </row>
@@ -41536,7 +41529,7 @@
       </c>
       <c r="F1370" t="inlineStr">
         <is>
-          <t>The Australian barcode for Beach Road Naturals' Mandarin, Basil &amp; Lime Castile Hand Wash 500ml is 9348918003067. ([incibeauty.com](https://incibeauty.com/en/produit/9348918003067?utm_source=openai))</t>
+          <t>9348918003067</t>
         </is>
       </c>
     </row>
@@ -41626,7 +41619,7 @@
       </c>
       <c r="F1373" t="inlineStr">
         <is>
-          <t>The Australian barcode for L'Oréal Elvive Extraordinary Oil Coconut Conditioner 340ml is 8901526641796. ([lorealparis.com.au](https://www.lorealparis.com.au/elvive/extraordinary-oil/coconut-conditioner-340ml?utm_source=openai))</t>
+          <t>8901526641796</t>
         </is>
       </c>
     </row>
@@ -41926,7 +41919,7 @@
       </c>
       <c r="F1383" t="inlineStr">
         <is>
-          <t>The Australian barcode for the Sheer Relief Cotton Sole Trouser Sock H33087 Black is 9356044065743. ([mightyape.com.au](https://www.mightyape.com.au/ma/buy/pricedumb-sheer-relief-women-knee-high-trouser-sock-stockings-for-active-legs-h33087-60-denier-6709662777446-39595508203622/?utm_source=openai))</t>
+          <t>9356044065743</t>
         </is>
       </c>
     </row>
@@ -42316,7 +42309,7 @@
       </c>
       <c r="F1396" t="inlineStr">
         <is>
-          <t>The Australian barcode for Maybelline Eye &amp; Lip Makeup Remover 70ml is 9344329015354. ([buycott.com](https://www.buycott.com/upc/9344329015354?utm_source=openai))</t>
+          <t>9344329015354</t>
         </is>
       </c>
     </row>
@@ -42466,7 +42459,7 @@
       </c>
       <c r="F1401" t="inlineStr">
         <is>
-          <t>The Australian barcode for the 'Smash Gel Ice Small 3 Pack' is 9325448222977. ([api.officeworks.com.au](https://api.officeworks.com.au/shop/officeworks/p/smash-gel-ice-small-3-pack-sm17575?utm_source=openai))</t>
+          <t>9325448222977</t>
         </is>
       </c>
     </row>
@@ -42826,7 +42819,7 @@
       </c>
       <c r="F1413" t="inlineStr">
         <is>
-          <t>The Australian barcode for 'Bonds Sheer Pantyhose Slim Nude Medium 1 each' is 9326489965205. ([ebay.com.au](https://www.ebay.com.au/p/1877985724?srsltid=AfmBOoqPUSIE94fCyLz1NG6j8GnrKeN9HlbjfrbCjESVGE_E0YyWn5MC&amp;utm_source=openai))</t>
+          <t>9326489965205</t>
         </is>
       </c>
     </row>
@@ -42886,7 +42879,7 @@
       </c>
       <c r="F1415" t="inlineStr">
         <is>
-          <t>The Australian barcode for 'Bonds Slimming Sheer Tights Comfy Tops' in size Large is 9326489965205. ([ebay.com.au](https://www.ebay.com.au/p/1877985724?srsltid=AfmBOoo_nyecniDB4aQ8xokpwBy10mRn4Q76_WfaWxNd2xpTNSzHbDQk&amp;utm_source=openai))</t>
+          <t>9326489965205</t>
         </is>
       </c>
     </row>
@@ -43066,7 +43059,7 @@
       </c>
       <c r="F1421" t="inlineStr">
         <is>
-          <t>The Australian barcode for 'Sheer Relief OSFA Pantyhose Knee Hi Mid Beige 1 Pack' is 070011786057. ([barcodeindex.com](https://barcodeindex.com/upc/070011786057?utm_source=openai))</t>
+          <t>070011786057</t>
         </is>
       </c>
     </row>
@@ -43186,7 +43179,7 @@
       </c>
       <c r="F1425" t="inlineStr">
         <is>
-          <t>The barcode for the Bonds 15D Sheer Shape Slimming Tights in Nude, size Large, is 9356044064142. ([dicksmith.co.nz](https://www.dicksmith.co.nz/dn/buy/floor-five-online-bonds-15d-sheer-shape-slimming-tights-l79570-nude-l79570-hgq-l79570-hgq-large/?utm_source=openai)) However, the barcode for the Small size is not available in the provided information.</t>
+          <t>9356044064142</t>
         </is>
       </c>
     </row>
@@ -43276,7 +43269,7 @@
       </c>
       <c r="F1428" t="inlineStr">
         <is>
-          <t>The Australian barcode for the 'Razza Footlet Size 8+ 3 Pack' is 9313022893460. ([ebay.com.au](https://www.ebay.com.au/itm/173581326698?utm_source=openai))</t>
+          <t>9313022893460</t>
         </is>
       </c>
     </row>
@@ -43366,7 +43359,7 @@
       </c>
       <c r="F1431" t="inlineStr">
         <is>
-          <t>The Australian barcode for 'In A Biskit Sweet Chilli Philadelphia Flavour 145g' is 7622210568205. ([minlatonfoodland.com.au](https://minlatonfoodland.com.au/lines/in-a-biskit-sweet-chilli-145g?utm_source=openai))</t>
+          <t>7622210568205</t>
         </is>
       </c>
     </row>
@@ -43516,7 +43509,7 @@
       </c>
       <c r="F1436" t="inlineStr">
         <is>
-          <t>The product 'Razza Classic Fishnet Black One Size | 1 pack' is listed on Burton's Clothing Co. ([burtonsclothingco.com.au](https://burtonsclothingco.com.au/products/razza-classic-fishnet-black-one-size-1-pack?utm_source=openai)) However, the barcode number is not provided in the available information.</t>
+          <t>Not Found</t>
         </is>
       </c>
     </row>
@@ -43756,7 +43749,7 @@
       </c>
       <c r="F1444" t="inlineStr">
         <is>
-          <t>The barcode for the Bonds Women's No Show Footlet in Nude, size 8+, is 1499919. ([bigw.com.au](https://www.bigw.com.au/product/bonds-women-s-no-show-footlet-nude-size-8-/p/1499919?utm_source=openai))</t>
+          <t>Not Found</t>
         </is>
       </c>
     </row>
@@ -43816,7 +43809,7 @@
       </c>
       <c r="F1446" t="inlineStr">
         <is>
-          <t>The product code for the Bonds No Show Footlet 1 Pack in tan, size 4-7, is L6471O_HGD. ([bonds.com.au](https://www.bonds.com.au/no-show-footlet-1-pack-l6471o-hgd.html?utm_source=openai)) However, the specific barcode number for this product is not available in the provided sources.</t>
+          <t>Not Found</t>
         </is>
       </c>
     </row>
@@ -43846,7 +43839,7 @@
       </c>
       <c r="F1447" t="inlineStr">
         <is>
-          <t>The barcode for the Razzamatazz Sheer Anklet 15 Denier Women's Pantyhose Stockings Socks 2 Pack in black is 9356044065491. ([mightyape.co.nz](https://www.mightyape.co.nz/mn/buy/pricedumb-2-pack-razzamatazz-sheer-anklet-15-denier-women-pantyhose-stockings-socks-h80044-6790969655398-39831173398630/?utm_source=openai))</t>
+          <t>9356044065491</t>
         </is>
       </c>
     </row>
@@ -43936,7 +43929,7 @@
       </c>
       <c r="F1450" t="inlineStr">
         <is>
-          <t>The barcode for the Sistema Klip It Plus 2.2L Rectangle Container 3-Pack in Australia is 9414202887238. ([mightyape.com.au](https://www.mightyape.com.au/ma/buy/mighty-ape-sistema-klip-it-plus-22l-rectangle-3-pack-34012920/?utm_source=openai))</t>
+          <t>9414202887238</t>
         </is>
       </c>
     </row>
@@ -43966,7 +43959,7 @@
       </c>
       <c r="F1451" t="inlineStr">
         <is>
-          <t>The barcode for the Sistema Klip It Plus Rectangle 1 Litre 3 Pack is 9414202886132. ([ebay.com.my](https://www.ebay.com.my/itm/224700483291?utm_source=openai))</t>
+          <t>9414202886132</t>
         </is>
       </c>
     </row>
@@ -44236,7 +44229,7 @@
       </c>
       <c r="F1460" t="inlineStr">
         <is>
-          <t>The barcode for the Sistema Klip It Plus Square Containers 520ml 3 Pack is 9414202886439. ([mightyape.co.nz](https://www.mightyape.co.nz/mn/buy/mighty-ape-sistema-klip-it-plus-520ml-square-3-pack-34012968/?utm_source=openai))</t>
+          <t>9414202886439</t>
         </is>
       </c>
     </row>
@@ -44356,7 +44349,7 @@
       </c>
       <c r="F1464" t="inlineStr">
         <is>
-          <t>The barcode for the Sistema Klip It Plus Rectangle Container 3.35 Litre is 9414202888303. ([bakewellcookshop.com](https://bakewellcookshop.com/sistema-klip-it-plus-3-35l-rectangle-container/?utm_source=openai))</t>
+          <t>9414202888303</t>
         </is>
       </c>
     </row>
@@ -44386,7 +44379,7 @@
       </c>
       <c r="F1465" t="inlineStr">
         <is>
-          <t>The Australian barcode for the Sistema To Go Stax Container 3.35L is 9414202217011. ([mightyape.com.au](https://www.mightyape.com.au/ma/buy/mighty-ape-sistema-to-go-stax-rectangle-container-39037986/?utm_source=openai))</t>
+          <t>9414202217011</t>
         </is>
       </c>
     </row>
@@ -44446,7 +44439,7 @@
       </c>
       <c r="F1467" t="inlineStr">
         <is>
-          <t>The barcode for the Sistema Klip It Plus Rectangle 2.2L Food Storage Container is 9414202887009. ([ebay.com](https://www.ebay.com/itm/175019443119?utm_source=openai))</t>
+          <t>9414202887009</t>
         </is>
       </c>
     </row>
@@ -44626,7 +44619,7 @@
       </c>
       <c r="F1473" t="inlineStr">
         <is>
-          <t>The Australian barcode for the Sistema Klip It Plus Cookie Container 2.2L is 9414202883346. ([blueinkgroup.com.au](https://www.blueinkgroup.com.au/sistema-klip-it-plus-square-cookie-tub-food-storage-container-22l?utm_source=openai))</t>
+          <t>9414202883346</t>
         </is>
       </c>
     </row>
@@ -44656,7 +44649,7 @@
       </c>
       <c r="F1474" t="inlineStr">
         <is>
-          <t>The Australian barcode for the Sistema Klip It Plus 180mL Rectangular Container 3 Pack is 9414202885234. ([ebay.com.au](https://www.ebay.com.au/p/22044253507?utm_source=openai))</t>
+          <t>9414202885234</t>
         </is>
       </c>
     </row>
@@ -44716,7 +44709,7 @@
       </c>
       <c r="F1476" t="inlineStr">
         <is>
-          <t>The barcode for the Sistema To Go Stax Container 1.15L is 9414202216519. ([ametsis.dk](https://ametsis.dk/da/stax-to-go/115l-square-stax-to-go?utm_source=openai))</t>
+          <t>9414202216519</t>
         </is>
       </c>
     </row>
@@ -44746,7 +44739,7 @@
       </c>
       <c r="F1477" t="inlineStr">
         <is>
-          <t>The Australian barcode for the Sistema To Go Stax 1L container is 9414202217011. ([mightyape.com.au](https://www.mightyape.com.au/ma/buy/mighty-ape-sistema-to-go-stax-rectangle-container-39037986/?utm_source=openai))</t>
+          <t>9414202217011</t>
         </is>
       </c>
     </row>
